--- a/datas/songs.xlsx
+++ b/datas/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarvar\Desktop\INHA\5th Semester\database design\team_project\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48D7950-056A-47BB-8A5D-B8C203240B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B4AB04-8881-4C5F-8C9A-D5EFF75F2F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="324">
   <si>
     <t>title</t>
   </si>
@@ -979,6 +979,24 @@
   </si>
   <si>
     <t>media/songs/63.m4a</t>
+  </si>
+  <si>
+    <t>Attack on Titan OST TK-T</t>
+  </si>
+  <si>
+    <t>Orchestral</t>
+  </si>
+  <si>
+    <t>media/cover_images/64.jpg</t>
+  </si>
+  <si>
+    <t>hiroyuki_1</t>
+  </si>
+  <si>
+    <t>media/songs/64.m4a</t>
+  </si>
+  <si>
+    <t>2019-10-17</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,6 +2627,26 @@
         <v>187</v>
       </c>
     </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" t="s">
+        <v>320</v>
+      </c>
+      <c r="D65" t="s">
+        <v>321</v>
+      </c>
+      <c r="E65" t="s">
+        <v>322</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
